--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C1qa-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C1qa-Cd93.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.569458333333333</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H2">
-        <v>13.708375</v>
+        <v>0.037499</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N2">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q2">
-        <v>569.9146233969167</v>
+        <v>1.143860800398555</v>
       </c>
       <c r="R2">
-        <v>5129.23161057225</v>
+        <v>10.294747203587</v>
       </c>
       <c r="S2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="T2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.569458333333333</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H3">
-        <v>13.708375</v>
+        <v>0.037499</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q3">
-        <v>0.615560871</v>
+        <v>0.001683855096</v>
       </c>
       <c r="R3">
-        <v>5.540047839</v>
+        <v>0.015154695864</v>
       </c>
       <c r="S3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="T3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.569458333333333</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H4">
-        <v>13.708375</v>
+        <v>0.037499</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q4">
-        <v>12.96162650340278</v>
+        <v>0.03545628364055555</v>
       </c>
       <c r="R4">
-        <v>116.654638530625</v>
+        <v>0.3191065527649999</v>
       </c>
       <c r="S4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="T4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
     </row>
   </sheetData>
